--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,18 +49,21 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -70,72 +73,72 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
+    <t>special</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
@@ -145,40 +148,31 @@
     <t>protect</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -536,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,16 +620,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6917808219178082</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C5">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D5">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3959731543624161</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3643410852713178</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C7">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D7">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.84375</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3544973544973545</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
         <v>0.8292682926829268</v>
@@ -908,34 +902,34 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>126</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.828125</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2301587301587301</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1099195710455764</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,71 +1017,95 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>332</v>
+        <v>200</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L11">
+        <v>47</v>
+      </c>
+      <c r="M11">
+        <v>47</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1152815013404826</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>330</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
         <v>0.7916666666666666</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>95</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>95</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12">
-        <v>0.7872340425531915</v>
-      </c>
-      <c r="L12">
-        <v>37</v>
-      </c>
-      <c r="M12">
-        <v>37</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7676056338028169</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L13">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1099,21 +1117,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.746031746031746</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1125,21 +1143,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7358490566037735</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L15">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1151,21 +1169,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.70625</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1177,21 +1195,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7058823529411765</v>
+        <v>0.70625</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1203,21 +1221,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6382978723404256</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L18">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M18">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1229,21 +1247,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1255,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6067415730337079</v>
+        <v>0.6370757180156658</v>
       </c>
       <c r="L20">
-        <v>54</v>
+        <v>244</v>
       </c>
       <c r="M20">
-        <v>54</v>
+        <v>244</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1281,21 +1299,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6057441253263708</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L21">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="M21">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1307,21 +1325,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.5588235294117647</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L22">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="M22">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1333,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.52</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1359,21 +1377,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5186440677966102</v>
+        <v>0.52</v>
       </c>
       <c r="L24">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1385,12 +1403,12 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>142</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
         <v>0.5076923076923077</v>
@@ -1416,7 +1434,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
         <v>0.497907949790795</v>
@@ -1442,16 +1460,16 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.4657534246575342</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1463,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.4615384615384616</v>
+        <v>0.46875</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1489,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.453125</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1515,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.3714285714285714</v>
+        <v>0.1394230769230769</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1541,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.1244019138755981</v>
+        <v>0.1267942583732057</v>
       </c>
       <c r="L31">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M31">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1567,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.1225961538461538</v>
+        <v>0.08277404921700224</v>
       </c>
       <c r="L32">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="M32">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1593,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>365</v>
+        <v>820</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.08389261744966443</v>
+        <v>0.06770255271920089</v>
       </c>
       <c r="L33">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M33">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1619,163 +1637,85 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>819</v>
+        <v>840</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.08222222222222222</v>
+        <v>0.04036908881199539</v>
       </c>
       <c r="L34">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="N34">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>826</v>
+        <v>832</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.0478395061728395</v>
+        <v>0.03277153558052434</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>617</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.04067321178120617</v>
+        <v>0.0196837689577283</v>
       </c>
       <c r="L36">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="M36">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37">
-        <v>0.04041570438799076</v>
-      </c>
-      <c r="L37">
-        <v>35</v>
-      </c>
-      <c r="M37">
-        <v>36</v>
-      </c>
-      <c r="N37">
-        <v>0.97</v>
-      </c>
-      <c r="O37">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38">
-        <v>0.02102199223803363</v>
-      </c>
-      <c r="L38">
-        <v>65</v>
-      </c>
-      <c r="M38">
-        <v>80</v>
-      </c>
-      <c r="N38">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O38">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39">
-        <v>0.01001564945226917</v>
-      </c>
-      <c r="L39">
-        <v>32</v>
-      </c>
-      <c r="M39">
-        <v>38</v>
-      </c>
-      <c r="N39">
-        <v>0.84</v>
-      </c>
-      <c r="O39">
-        <v>0.16</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>3163</v>
+        <v>3038</v>
       </c>
     </row>
   </sheetData>
